--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAL\git\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A3C6F187-CFD4-419D-8998-290D325A4D7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174D6F1-CBAF-401D-A280-FC77FB05E599}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -135,39 +135,15 @@
     <t>Als Nutzer der Applikation (ungeachtet der Rolle) will ich mich über eine GUI mittels persönlichem PW und Accountname einloggen</t>
   </si>
   <si>
-    <t>Als Angehöriger will ich meine Beobachtungen zum Patient über eine GUI im Patiententagebuch erfassen können</t>
-  </si>
-  <si>
-    <t>Die Patientenbucheinträge welche durch den Angehörigen sollen dem Arzt via GUI zur Verfügung gestellt werden</t>
-  </si>
-  <si>
-    <t>Database, UI, Model, Controller</t>
-  </si>
-  <si>
     <t>Andi</t>
   </si>
   <si>
-    <t>Nick</t>
-  </si>
-  <si>
     <t>Ohran</t>
   </si>
   <si>
     <t>Janick</t>
   </si>
   <si>
-    <t>Als Arzt will ich Einträge im Angehörigentagebuch erfassen können</t>
-  </si>
-  <si>
-    <t>Als Arzt will ich meine Einträge im Angehörigentagebuch Ändern und Löschen können</t>
-  </si>
-  <si>
-    <t>Als Arzt will ich meine Angehörigentagebucheinträge den Angehörigen zugänging machen können</t>
-  </si>
-  <si>
-    <t>Als Arzt will ich den Angehörigen des Patienten die Möglichkeit geben, die geteilten Tagebucheinträge zu kommentieren</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -192,9 +168,6 @@
     <t>Database, UI, Model, Presenter</t>
   </si>
   <si>
-    <t>Als Angehöriger will ich über eine GUI meine Einträge im Patiententagebuch jederzeit Ändern und Löschen können</t>
-  </si>
-  <si>
     <t>Presenter</t>
   </si>
   <si>
@@ -210,13 +183,52 @@
     <t>Nik</t>
   </si>
   <si>
-    <t>review</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total effort done for each ID </t>
   </si>
   <si>
-    <t>Login, Datenablage, Grundaufbau der Applikation (GUI Struktur), Berechtigungsmodell, Testdaten, Sessionmanagement, dynamisches GUI (AJAX, JS etc.) etc. -&gt; wird in allen Sprints umgesetzt</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>NIk</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich meine Beobachtungen zum Patient über eine GUI im Angehörigentagebuch erfassen können</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich über eine GUI meine Einträge im Angehörigentagebuch jederzeit Löschen können</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich über eine GUI meine Einträge im Angehörigentagebuch jederzeit Ändern können</t>
+  </si>
+  <si>
+    <t>Der behandelnde Arzt soll Angehörigentagebucheinträge kommentieren können</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich über die Einträge im Angehörigentagebuch mit dem Arzt kommunizieren können</t>
+  </si>
+  <si>
+    <t>Die Kommentare im Angehörigetagebuch sollen vom jeweiligen Verfasser jederzeit geändert werden können</t>
+  </si>
+  <si>
+    <t>Die Kommentare im Angehörigetagebuch sollen vom jeweiligen Verfasser jederzeit gelöscht werden können</t>
+  </si>
+  <si>
+    <t>Testdaten in Datenablage generieren</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Dashboard (mit Zusammenfassung der wichtigsten Informationen)</t>
+  </si>
+  <si>
+    <t>Login, Datenablage, Grundaufbau der Applikation (GUI Struktur), Berechtigungsmodell, Testdaten, Sessionmanagement, Navigation, Dashboard</t>
+  </si>
+  <si>
+    <t>Als Nutzer der Applikation will ich mittels einer übersichtlichen Menüführung durch die Applikation navigieren</t>
+  </si>
+  <si>
+    <t>Ohran, Nik</t>
   </si>
 </sst>
 </file>
@@ -273,7 +285,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +298,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -527,11 +545,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -632,9 +663,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -759,6 +796,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -769,6 +826,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -779,6 +846,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -809,6 +906,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -819,16 +946,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -849,46 +966,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -934,46 +1011,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,7 +1088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1350,20 +1387,20 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2"/>
+    <col min="1" max="1" width="14.1796875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" style="2"/>
     <col min="3" max="3" width="55" style="2"/>
-    <col min="4" max="9" width="28.140625" style="2" customWidth="1"/>
-    <col min="10" max="1025" width="11.5703125" style="2"/>
-    <col min="1026" max="16384" width="8.7109375" style="2"/>
+    <col min="4" max="9" width="28.1796875" style="2" customWidth="1"/>
+    <col min="10" max="1025" width="11.54296875" style="2"/>
+    <col min="1026" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="70" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1411,7 +1448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -1433,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>8</v>
       </c>
@@ -1441,7 +1478,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -1455,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1477,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>6</v>
       </c>
@@ -1499,7 +1536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1521,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1543,7 +1580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -1565,7 +1602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="9">
         <f>SUM(E2:E9)</f>
         <v>210</v>
@@ -1599,20 +1636,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" style="2"/>
-    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="2" width="17.453125" style="2"/>
+    <col min="3" max="3" width="22.81640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1647,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -1661,13 +1698,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="G2" s="26">
         <v>2</v>
       </c>
@@ -1677,11 +1718,11 @@
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>3.2</v>
       </c>
@@ -1689,27 +1730,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="G3" s="26">
         <v>2</v>
       </c>
       <c r="H3" s="26">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -1717,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>30</v>
@@ -1732,133 +1777,131 @@
         <v>2</v>
       </c>
       <c r="H4" s="26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(H2:H4)</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M4" s="30">
         <f>SUM(I2:I4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G5" s="26">
         <v>2</v>
       </c>
       <c r="H5" s="26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B6" s="22">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B7" s="22">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" s="26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="26">
+        <v>60</v>
+      </c>
+      <c r="G7" s="34">
+        <v>2</v>
+      </c>
+      <c r="H7" s="26">
         <v>3</v>
-      </c>
-      <c r="H7" s="26">
-        <v>6</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="K7" s="27"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B8" s="22">
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>30</v>
@@ -1872,18 +1915,18 @@
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
       <c r="K8" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L8" s="30">
         <f>SUM(H5:H8)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M8" s="30">
         <f>SUM(I5:I8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8.1</v>
       </c>
@@ -1894,13 +1937,13 @@
         <v>32</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -1909,13 +1952,15 @@
         <v>5</v>
       </c>
       <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="26">
+        <v>4</v>
+      </c>
       <c r="K9" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="84" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -1926,10 +1971,10 @@
         <v>31</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>30</v>
@@ -1943,11 +1988,11 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="70" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>8.3000000000000007</v>
       </c>
@@ -1955,16 +2000,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -1973,13 +2018,15 @@
         <v>5</v>
       </c>
       <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="26">
+        <v>7</v>
+      </c>
       <c r="K11" s="27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>8.4</v>
       </c>
@@ -1987,31 +2034,33 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G12" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="26">
+        <v>3</v>
+      </c>
       <c r="K12" s="27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>8.5</v>
       </c>
@@ -2019,50 +2068,148 @@
         <v>1</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
       </c>
       <c r="H13" s="26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="26"/>
       <c r="K13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="30">
-        <f>SUM(H9:H13)</f>
-        <v>25</v>
-      </c>
-      <c r="M13" s="30">
-        <f>SUM(I9:I13)</f>
+        <v>47</v>
+      </c>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="B14" s="22">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="33">
-        <f>SUM(L2:L13)</f>
-        <v>75</v>
-      </c>
-      <c r="M14" s="33">
-        <f>SUM(M2:M13)</f>
+      <c r="H14" s="26">
+        <v>5</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="26">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>3</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>5</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26">
+        <v>4</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="30">
+        <f>SUM(H9:H16)</f>
+        <v>36</v>
+      </c>
+      <c r="M16" s="30">
+        <f>SUM(I9:I16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L17" s="33">
+        <f>SUM(L2:L16)</f>
+        <v>68</v>
+      </c>
+      <c r="M17" s="33">
+        <f>SUM(M2:M16)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{DC1329CF-A193-4C10-8E34-AABA2DC5005B}">
-    <sortState ref="A2:H14">
+    <sortState ref="A2:H17">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2074,61 +2221,61 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:M13">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="lessThan">
+  <conditionalFormatting sqref="L16:M16">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>45</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M8">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:M14">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="L17:M17">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>63</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="G2:G6">
     <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
@@ -2143,15 +2290,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="17" operator="greaterThan" id="{635E2CEE-ED27-427B-AD79-41DFB49C9180}">
+          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{8D1A8E41-E55A-4D5C-BA18-5E57E8713084}">
             <xm:f>Product_Backlog!$E$2</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF9C0006"/>
+                <color rgb="FF9C5700"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFEB9C"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2169,8 +2316,24 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="15" operator="equal" id="{8D1A8E41-E55A-4D5C-BA18-5E57E8713084}">
+          <x14:cfRule type="cellIs" priority="17" operator="greaterThan" id="{635E2CEE-ED27-427B-AD79-41DFB49C9180}">
             <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L4:M4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{BCFA70E4-82A5-4C26-A7AA-9C79C4CEDDC1}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C5700"/>
@@ -2178,22 +2341,6 @@
               <fill>
                 <patternFill>
                   <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L4:M4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="14" operator="greaterThan" id="{94C6A8E7-1440-4949-88E4-D44DE9A5ED4D}">
-            <xm:f>Product_Backlog!$E$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2211,15 +2358,15 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="12" operator="equal" id="{BCFA70E4-82A5-4C26-A7AA-9C79C4CEDDC1}">
+          <x14:cfRule type="cellIs" priority="14" operator="greaterThan" id="{94C6A8E7-1440-4949-88E4-D44DE9A5ED4D}">
             <xm:f>Product_Backlog!$E$3</xm:f>
             <x14:dxf>
               <font>
-                <color rgb="FF9C5700"/>
+                <color rgb="FF9C0006"/>
               </font>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
+                  <bgColor rgb="FFFFC7CE"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2240,12 +2387,12 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2293,7 +2440,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2308,7 +2455,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2321,7 +2468,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2334,7 +2481,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2347,7 +2494,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2360,7 +2507,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2373,7 +2520,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2386,7 +2533,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2399,7 +2546,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2412,7 +2559,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <v>100</v>
       </c>
@@ -2460,12 +2607,12 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2513,7 +2660,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2528,7 +2675,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2541,7 +2688,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2554,7 +2701,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2567,7 +2714,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2580,7 +2727,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2593,7 +2740,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2606,7 +2753,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2619,7 +2766,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2632,7 +2779,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H12" s="2">
         <v>100</v>
       </c>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAL\git\ch.bfh.bti7081.s2018.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9174D6F1-CBAF-401D-A280-FC77FB05E599}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5FC83D56-2385-4106-B5F2-439335C5BCED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4100" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -225,10 +225,10 @@
     <t>Login, Datenablage, Grundaufbau der Applikation (GUI Struktur), Berechtigungsmodell, Testdaten, Sessionmanagement, Navigation, Dashboard</t>
   </si>
   <si>
-    <t>Als Nutzer der Applikation will ich mittels einer übersichtlichen Menüführung durch die Applikation navigieren</t>
-  </si>
-  <si>
     <t>Ohran, Nik</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1387,20 +1387,20 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="2"/>
+    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="2"/>
     <col min="3" max="3" width="55" style="2"/>
-    <col min="4" max="9" width="28.1796875" style="2" customWidth="1"/>
-    <col min="10" max="1025" width="11.54296875" style="2"/>
-    <col min="1026" max="16384" width="8.7265625" style="2"/>
+    <col min="4" max="9" width="28.140625" style="2" customWidth="1"/>
+    <col min="10" max="1025" width="11.5703125" style="2"/>
+    <col min="1026" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -1448,7 +1448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -1470,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>8</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1492,7 +1492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -1514,7 +1514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>6</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -1536,7 +1536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -1558,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -1580,7 +1580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1602,10 +1602,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="9">
         <f>SUM(E2:E9)</f>
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1636,20 +1636,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.453125" style="2"/>
-    <col min="3" max="3" width="22.81640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.453125" style="2"/>
+    <col min="1" max="2" width="17.42578125" style="2"/>
+    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>60</v>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>3.2</v>
       </c>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -1789,11 +1789,11 @@
         <v>18</v>
       </c>
       <c r="M4" s="30">
-        <f>SUM(I2:I4)</f>
+        <f>SUM(J2:J4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>4.0999999999999996</v>
       </c>
@@ -1818,14 +1818,18 @@
       <c r="H5" s="26">
         <v>4</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="26">
+        <v>2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>3</v>
+      </c>
       <c r="K5" s="27" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>4.2</v>
       </c>
@@ -1853,11 +1857,11 @@
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>4.3</v>
       </c>
@@ -1884,10 +1888,12 @@
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="27" t="s">
+        <v>46</v>
+      </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="70.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>4.4000000000000004</v>
       </c>
@@ -1922,11 +1928,11 @@
         <v>14</v>
       </c>
       <c r="M8" s="30">
-        <f>SUM(I5:I8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+        <f>SUM(J5:J8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>8.1</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -1988,11 +1994,11 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>8.3000000000000007</v>
       </c>
@@ -2026,7 +2032,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>8.4</v>
       </c>
@@ -2060,7 +2066,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>8.5</v>
       </c>
@@ -2086,13 +2092,15 @@
         <v>7</v>
       </c>
       <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="26">
+        <v>7</v>
+      </c>
       <c r="K13" s="27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>8.6</v>
       </c>
@@ -2115,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
@@ -2124,7 +2132,7 @@
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="84" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -2132,84 +2140,52 @@
         <v>1</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="J15" s="26">
+        <v>4</v>
+      </c>
       <c r="K15" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B16" s="22">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>5</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26">
-        <v>4</v>
-      </c>
-      <c r="K16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="30">
-        <f>SUM(H9:H16)</f>
-        <v>36</v>
-      </c>
-      <c r="M16" s="30">
-        <f>SUM(I9:I16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="12:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L17" s="33">
-        <f>SUM(L2:L16)</f>
-        <v>68</v>
-      </c>
-      <c r="M17" s="33">
-        <f>SUM(M2:M16)</f>
-        <v>0</v>
+      <c r="L15" s="30">
+        <f>SUM(H9:H15)</f>
+        <v>34</v>
+      </c>
+      <c r="M15" s="30">
+        <f>SUM(J9:J15)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="33">
+        <f>SUM(L2:L15)</f>
+        <v>66</v>
+      </c>
+      <c r="M16" s="33">
+        <f>SUM(M2:M15)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{DC1329CF-A193-4C10-8E34-AABA2DC5005B}">
-    <sortState ref="A2:H17">
+    <sortState ref="A2:H16">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -2221,7 +2197,7 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:M16">
+  <conditionalFormatting sqref="L15:M15">
     <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
       <formula>45</formula>
     </cfRule>
@@ -2264,7 +2240,7 @@
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:M17">
+  <conditionalFormatting sqref="L16:M16">
     <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>63</formula>
     </cfRule>
@@ -2387,12 +2363,12 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="17.453125" style="2"/>
+    <col min="1" max="16384" width="17.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2427,7 +2403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2440,7 +2416,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2455,7 +2431,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2468,7 +2444,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2481,7 +2457,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2494,7 +2470,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2507,7 +2483,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2520,7 +2496,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2533,7 +2509,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2546,7 +2522,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2559,7 +2535,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H12" s="2">
         <v>100</v>
       </c>
@@ -2607,12 +2583,12 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="17.453125" style="2"/>
+    <col min="1" max="16384" width="17.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2647,7 +2623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2660,7 +2636,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2675,7 +2651,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2688,7 +2664,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2701,7 +2677,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2714,7 +2690,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2727,7 +2703,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2740,7 +2716,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2753,7 +2729,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2766,7 +2742,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2779,7 +2755,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H12" s="2">
         <v>100</v>
       </c>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5FC83D56-2385-4106-B5F2-439335C5BCED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{571BEE90-61A3-4EC6-A905-84B7763B7C5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -1779,10 +1779,12 @@
       <c r="H4" s="26">
         <v>2</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="26">
+        <v>3</v>
+      </c>
       <c r="J4" s="26"/>
       <c r="K4" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(H2:H4)</f>
@@ -1966,7 +1968,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="114" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{571BEE90-61A3-4EC6-A905-84B7763B7C5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5724F708-C78D-47A5-A931-3E0E9FED2301}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint_2_Backlog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint_3_Backlog!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>64</v>
@@ -1877,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>60</v>
@@ -1909,7 +1909,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>30</v>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="M8" s="30">
         <f>SUM(J5:J8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="M16" s="33">
         <f>SUM(M2:M15)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5724F708-C78D-47A5-A931-3E0E9FED2301}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7084E37-B9AF-480D-92B5-AF4F783C3184}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1768,10 +1768,10 @@
         <v>44</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
@@ -1782,9 +1782,11 @@
       <c r="I4" s="26">
         <v>3</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="26">
+        <v>4</v>
+      </c>
       <c r="K4" s="27" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(H2:H4)</f>
@@ -1792,7 +1794,7 @@
       </c>
       <c r="M4" s="30">
         <f>SUM(J2:J4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
@@ -1845,10 +1847,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="26">
         <v>3</v>
@@ -1889,9 +1891,11 @@
         <v>3</v>
       </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="26">
+        <v>3</v>
+      </c>
       <c r="K7" s="27" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L7" s="32"/>
     </row>
@@ -1931,7 +1935,7 @@
       </c>
       <c r="M8" s="30">
         <f>SUM(J5:J8)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
@@ -2093,12 +2097,12 @@
       <c r="H13" s="26">
         <v>7</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26">
-        <v>7</v>
-      </c>
+      <c r="I13" s="26">
+        <v>10</v>
+      </c>
+      <c r="J13" s="26"/>
       <c r="K13" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L13" s="29"/>
     </row>
@@ -2172,7 +2176,7 @@
       </c>
       <c r="M15" s="30">
         <f>SUM(J9:J15)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7084E37-B9AF-480D-92B5-AF4F783C3184}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD233055-5C87-4008-BE9B-A0C14ECA2EBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1859,9 +1859,11 @@
         <v>4</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="26">
+        <v>3</v>
+      </c>
       <c r="K6" s="27" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L6" s="32"/>
     </row>
@@ -1924,10 +1926,14 @@
       <c r="H8" s="26">
         <v>3</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="26">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26">
+        <v>2</v>
+      </c>
       <c r="K8" s="27" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L8" s="30">
         <f>SUM(H5:H8)</f>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="M8" s="30">
         <f>SUM(J5:J8)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
@@ -2186,7 +2192,7 @@
       </c>
       <c r="M16" s="33">
         <f>SUM(M2:M15)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tester/Desktop/Projekte/Studium/ch.bfh.bti7081.s2018.white/doc/task06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD233055-5C87-4008-BE9B-A0C14ECA2EBB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="987" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -24,8 +23,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint_2_Backlog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint_3_Backlog!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -141,9 +146,6 @@
     <t>Ohran</t>
   </si>
   <si>
-    <t>Janick</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -174,9 +176,6 @@
     <t>Total effort for each ID in Sprint</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>in Dev</t>
   </si>
   <si>
@@ -229,12 +228,18 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Ivo, Ohran</t>
+  </si>
+  <si>
+    <t>Jannick, Ohran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -315,231 +320,231 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -547,13 +552,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1383,24 +1388,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="2"/>
-    <col min="3" max="3" width="55" style="2"/>
-    <col min="4" max="9" width="28.140625" style="2" customWidth="1"/>
-    <col min="10" max="1025" width="11.5703125" style="2"/>
-    <col min="1026" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="2"/>
+    <col min="4" max="9" width="28.1640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="224" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="280" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>8</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -1492,7 +1495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="409" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>6</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="364" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1580,7 +1583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -1602,14 +1605,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E10" s="9">
         <f>SUM(E2:E9)</f>
         <v>172</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{DC1329CF-A193-4C10-8E34-AABA2DC5005B}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>
@@ -1635,21 +1638,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FF3D15-4E8C-47CB-B190-4A3D8712E2ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" style="2"/>
-    <col min="3" max="3" width="22.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="2" width="17.5" style="2"/>
+    <col min="3" max="3" width="22.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1684,13 +1687,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -1698,16 +1701,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="26">
         <v>2</v>
@@ -1716,13 +1719,15 @@
         <v>14</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="J2" s="26">
+        <v>10</v>
+      </c>
       <c r="K2" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>3.2</v>
       </c>
@@ -1730,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>33</v>
@@ -1748,13 +1753,15 @@
         <v>2</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="J3" s="26">
+        <v>2</v>
+      </c>
       <c r="K3" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -1762,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>29</v>
@@ -1786,7 +1793,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(H2:H4)</f>
@@ -1794,10 +1801,10 @@
       </c>
       <c r="M4" s="30">
         <f>SUM(J2:J4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4.0999999999999996</v>
       </c>
@@ -1805,10 +1812,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>29</v>
@@ -1829,11 +1836,11 @@
         <v>4</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>4.2</v>
       </c>
@@ -1841,16 +1848,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="26">
         <v>3</v>
@@ -1863,11 +1870,11 @@
         <v>3</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>4.3</v>
       </c>
@@ -1875,16 +1882,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" s="34">
         <v>2</v>
@@ -1897,11 +1904,11 @@
         <v>3</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="71" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>4.4000000000000004</v>
       </c>
@@ -1909,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="26" t="s">
         <v>29</v>
@@ -1933,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8" s="30">
         <f>SUM(H5:H8)</f>
@@ -1944,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="114" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="84" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>8.1</v>
       </c>
@@ -1955,10 +1962,10 @@
         <v>32</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>34</v>
@@ -1974,11 +1981,11 @@
         <v>4</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="84" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -1989,10 +1996,10 @@
         <v>31</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F10" s="26" t="s">
         <v>30</v>
@@ -2003,14 +2010,16 @@
       <c r="H10" s="26">
         <v>3</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="26">
+        <v>3</v>
+      </c>
       <c r="J10" s="26"/>
       <c r="K10" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="70" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>8.3000000000000007</v>
       </c>
@@ -2018,13 +2027,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>29</v>
@@ -2040,11 +2049,11 @@
         <v>7</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>8.4</v>
       </c>
@@ -2052,16 +2061,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G12" s="26">
         <v>1</v>
@@ -2074,11 +2083,11 @@
         <v>3</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>8.5</v>
       </c>
@@ -2086,13 +2095,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>33</v>
@@ -2104,15 +2113,15 @@
         <v>7</v>
       </c>
       <c r="I13" s="26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J13" s="26"/>
       <c r="K13" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8.6</v>
       </c>
@@ -2120,13 +2129,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>34</v>
@@ -2140,11 +2149,11 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -2152,16 +2161,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G15" s="26">
         <v>0</v>
@@ -2174,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L15" s="30">
         <f>SUM(H9:H15)</f>
@@ -2185,18 +2194,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L16" s="33">
         <f>SUM(L2:L15)</f>
         <v>66</v>
       </c>
       <c r="M16" s="33">
         <f>SUM(M2:M15)</f>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{DC1329CF-A193-4C10-8E34-AABA2DC5005B}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H16">
       <sortCondition ref="A1"/>
     </sortState>
@@ -2368,19 +2377,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9043CEF-0CEC-4A08-9454-1FE79D661968}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="16384" width="17.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2428,7 +2437,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2443,7 +2452,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2456,7 +2465,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2469,7 +2478,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2482,7 +2491,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2495,7 +2504,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2508,7 +2517,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2521,7 +2530,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2534,7 +2543,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2547,13 +2556,13 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H12" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{DC1329CF-A193-4C10-8E34-AABA2DC5005B}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>
@@ -2588,19 +2597,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C18D062-411D-459A-B217-3872E6AD1218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="16384" width="17.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2648,7 +2657,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2663,7 +2672,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2676,7 +2685,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2689,7 +2698,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2702,7 +2711,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2715,7 +2724,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2728,7 +2737,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2741,7 +2750,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2754,7 +2763,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2767,13 +2776,13 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H12" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{DC1329CF-A193-4C10-8E34-AABA2DC5005B}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tester/Desktop/Projekte/Studium/ch.bfh.bti7081.s2018.white/doc/task06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5ECC7A80-26A9-410A-9EE6-6E5BA0F0AD72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="987" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint_2_Backlog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint_3_Backlog!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179017" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,8 +39,138 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dario Furigo</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{BECCCC84-F2F0-4362-9FD5-DB744A07F752}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{9ED7705E-DE33-48B4-B116-A8FEDCC27C8B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{97F0066E-69DE-419D-96A9-ABC96CB2EADE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{351104BE-F8E9-4B76-8520-B88D732CE34B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{5A2E04FD-249E-455D-9153-624BC4B3B195}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -101,9 +232,6 @@
     <t>Arzt: Zielvereinbarung</t>
   </si>
   <si>
-    <t>Als Arzt will ich dem Patienten im Zielvereinbarungssystem Ziele setzen, ändern, löschen und deren Status anpassen können. Weiter will ich auch die gesetzten Ziele der Angehörigen ändern und löschen können.</t>
-  </si>
-  <si>
     <t>Angehöriger: Zielvereinbarung</t>
   </si>
   <si>
@@ -234,13 +362,61 @@
   </si>
   <si>
     <t>Jannick, Ohran</t>
+  </si>
+  <si>
+    <t>Die Applikation benötigt ein einheitliches Design</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Als Patient benötige ich readonly Zugriff auf meine Ziele</t>
+  </si>
+  <si>
+    <t>Der Arzt kann neue Ziele für seine zuständigen Patienten erfassen</t>
+  </si>
+  <si>
+    <t>Der Arzt kann seine erfassten Ziele anpassen oder löschen</t>
+  </si>
+  <si>
+    <t>Der Arzt kann Ziele, die von Angehörigen seiner Patienten erstellt wurden, löschen</t>
+  </si>
+  <si>
+    <t>Als Arzt will ich dem Patienten im Zielvereinbarungssystem Ziele setzen, ändern, löschen und deren Status anpassen können. Weiter will ich auch die gesetzten Ziele der Angehörigen löschen können.</t>
+  </si>
+  <si>
+    <t>Alle Ziele haben einen Status, welcher nur vom Arzt angepasst werden kann</t>
+  </si>
+  <si>
+    <t>Die vom Angehörigen erfassten Ziele können editiert und gelöscht werden</t>
+  </si>
+  <si>
+    <t>Die Ziele der Angehörigen sind klar von den Zielen des Arztes zu trennen</t>
+  </si>
+  <si>
+    <t>Der Angehörige eines Patienten kann Ziele erfassen. Dies darf natürlich nur für seine Angehörigen möglich sein</t>
+  </si>
+  <si>
+    <t>Presenter, UI, Model, Database</t>
+  </si>
+  <si>
+    <t>UI, Presenter</t>
+  </si>
+  <si>
+    <t>Presenter, UI</t>
+  </si>
+  <si>
+    <t>Die Applikation benötigt ein Rollengebundenes Berechtigungsmodell, dies beinhaltet die Berechtigungen welche beim Erfassen, Editieren oder Löschen vorhanden sind</t>
+  </si>
+  <si>
+    <t>waiting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -287,6 +463,19 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -678,7 +867,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="94">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -736,6 +925,546 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1388,22 +2117,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="14" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="2"/>
-    <col min="4" max="9" width="28.1640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="25.42578125" style="14"/>
+    <col min="2" max="2" width="25.42578125" style="2"/>
+    <col min="3" max="3" width="70.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="25.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1448,10 +2177,10 @@
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="224" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -1470,24 +2199,24 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="280" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
       </c>
       <c r="E4" s="19">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -1495,7 +2224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="210" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1509,15 +2238,15 @@
         <v>2</v>
       </c>
       <c r="E5" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="409" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>6</v>
       </c>
@@ -1525,7 +2254,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
@@ -1536,18 +2265,18 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="364" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
@@ -1558,10 +2287,10 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="409" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -1580,10 +2309,10 @@
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -1602,29 +2331,29 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="E10" s="9">
         <f>SUM(E2:E9)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="lessThan">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="greaterThan">
       <formula>210</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1638,38 +2367,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.5" style="2"/>
-    <col min="3" max="3" width="22.83203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.5" style="2"/>
+    <col min="1" max="2" width="17.42578125" style="2"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -1687,13 +2416,13 @@
         <v>7</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -1701,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="26">
         <v>2</v>
@@ -1723,11 +2452,11 @@
         <v>10</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>3.2</v>
       </c>
@@ -1735,16 +2464,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="26">
         <v>2</v>
@@ -1757,11 +2486,11 @@
         <v>2</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="71" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -1769,16 +2498,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="26">
         <v>2</v>
@@ -1793,7 +2522,7 @@
         <v>4</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L4" s="30">
         <f>SUM(H2:H4)</f>
@@ -1804,7 +2533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="22">
         <v>4.0999999999999996</v>
       </c>
@@ -1812,16 +2541,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="G5" s="26">
         <v>2</v>
@@ -1836,11 +2565,11 @@
         <v>4</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>4.2</v>
       </c>
@@ -1848,16 +2577,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="26">
         <v>3</v>
@@ -1870,11 +2599,11 @@
         <v>3</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <v>4.3</v>
       </c>
@@ -1882,16 +2611,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="34">
         <v>2</v>
@@ -1904,11 +2633,11 @@
         <v>3</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="71" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>4.4000000000000004</v>
       </c>
@@ -1916,16 +2645,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="26">
         <v>2</v>
@@ -1940,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L8" s="30">
         <f>SUM(H5:H8)</f>
@@ -1951,7 +2680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>8.1</v>
       </c>
@@ -1959,16 +2688,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -1981,11 +2710,11 @@
         <v>4</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -1993,16 +2722,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="26">
         <v>1</v>
@@ -2010,16 +2739,16 @@
       <c r="H10" s="26">
         <v>3</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="26"/>
+      <c r="J10" s="26">
         <v>3</v>
       </c>
-      <c r="J10" s="26"/>
       <c r="K10" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>8.3000000000000007</v>
       </c>
@@ -2027,16 +2756,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="26">
         <v>0</v>
@@ -2049,11 +2778,11 @@
         <v>7</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>8.4</v>
       </c>
@@ -2061,16 +2790,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="26">
         <v>1</v>
@@ -2083,11 +2812,11 @@
         <v>3</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>8.5</v>
       </c>
@@ -2095,16 +2824,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
@@ -2112,16 +2841,16 @@
       <c r="H13" s="26">
         <v>7</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26">
         <v>6</v>
       </c>
-      <c r="J13" s="26"/>
       <c r="K13" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>8.6</v>
       </c>
@@ -2129,16 +2858,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="26">
         <v>0</v>
@@ -2149,11 +2878,11 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="27" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -2161,16 +2890,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="26">
         <v>0</v>
@@ -2183,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="30">
         <f>SUM(H9:H15)</f>
@@ -2191,89 +2920,89 @@
       </c>
       <c r="M15" s="30">
         <f>SUM(J9:J15)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L16" s="33">
         <f>SUM(L2:L15)</f>
         <v>66</v>
       </c>
       <c r="M16" s="33">
         <f>SUM(M2:M15)</f>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A2:H16">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L4:M4">
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="24" operator="lessThan">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="25" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:M15">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="6" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="8" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="9" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="21" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="lessThan">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M8">
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="18" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2377,36 +3106,737 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.42578125" style="2"/>
+    <col min="3" max="3" width="49.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="26">
+        <v>1</v>
+      </c>
+      <c r="H2" s="26">
+        <v>4</v>
+      </c>
+      <c r="I2" s="26">
+        <v>1</v>
+      </c>
+      <c r="J2" s="26">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="30">
+        <f>SUM(H2:H2)</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="30">
+        <f>SUM(J2:J2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="J3" s="26">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>6.2</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="26">
+        <v>2</v>
+      </c>
+      <c r="H4" s="26">
+        <v>2</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>6.3</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26">
+        <v>4</v>
+      </c>
+      <c r="I5" s="26">
+        <v>1</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>6.4</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="34">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26">
+        <v>1</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="30">
+        <f>SUM(H3:H6)</f>
+        <v>12</v>
+      </c>
+      <c r="M6" s="30">
+        <f>SUM(J3:J6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>7.1</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
+        <v>1</v>
+      </c>
+      <c r="H7" s="26">
+        <v>5</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>7.2</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26">
+        <v>2</v>
+      </c>
+      <c r="H8" s="26">
+        <v>4</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7.3</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <v>5</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="30">
+        <f>SUM(H7:H9)</f>
+        <v>14</v>
+      </c>
+      <c r="M9" s="30">
+        <f>SUM(J7:J9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B10" s="22">
+        <v>2</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>3</v>
+      </c>
+      <c r="I10" s="26">
+        <v>6</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="B11" s="22">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>7</v>
+      </c>
+      <c r="I11" s="26">
+        <v>10</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>6</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B13" s="22">
+        <v>2</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>10</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="30">
+        <f>SUM(H10:H13)</f>
+        <v>26</v>
+      </c>
+      <c r="M14" s="30">
+        <f>SUM(J10:J13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="33">
+        <f>SUM(L2:L14)</f>
+        <v>56</v>
+      </c>
+      <c r="M15" s="33">
+        <f>SUM(M2:M14)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState ref="A2:H8">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="L2:M2">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="lessThan">
+      <formula>35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M14">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="greaterThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="greaterThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="lessThan">
+      <formula>45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:M6">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:M15">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+      <formula>63</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+      <formula>63</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:M9">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="20" operator="equal" id="{88B4FAA8-B600-4875-BB90-4AC99CF189E6}">
+            <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="21" operator="lessThan" id="{A812D1EB-8274-46AB-B041-802CB7979354}">
+            <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" operator="greaterThan" id="{A84D29D2-3C73-45C7-8D46-2BC5EDC94A0B}">
+            <xm:f>Product_Backlog!$E$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L2:M2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="17" operator="equal" id="{A177FD7B-4FB2-4F5A-A956-DDAD15E6C2C4}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="18" operator="lessThan" id="{C83CA9CF-B5FB-4543-9FAF-4D48A9B0A310}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="19" operator="greaterThan" id="{B86509CA-A92F-42F3-9507-5E981866ABC5}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6:M6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{6D3660A7-6951-4A8E-8004-B3EBA33FED2E}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C5700"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="lessThan" id="{9967B790-8D87-4854-900D-570277680986}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="greaterThan" id="{1EC6FCCA-132A-41F1-898A-42859382829A}">
+            <xm:f>Product_Backlog!$E$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L9:M9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="17.5" style="2"/>
+    <col min="1" max="16384" width="17.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>3</v>
@@ -2424,7 +3854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2437,7 +3867,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -2452,7 +3882,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2465,7 +3895,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -2478,7 +3908,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -2491,7 +3921,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -2504,7 +3934,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -2517,7 +3947,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -2530,7 +3960,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2543,7 +3973,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2556,233 +3986,13 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H12" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
-    <sortState ref="A2:H9">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="16384" width="17.5" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="H12" s="2">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5ECC7A80-26A9-410A-9EE6-6E5BA0F0AD72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56651009-ACD7-4F84-9216-D083F0E35E37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="987" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -960,6 +960,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -970,6 +980,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -980,6 +1010,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -990,6 +1060,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1000,6 +1080,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1020,6 +1140,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1030,16 +1200,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1055,476 +1215,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2347,13 +2037,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="lessThan">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
       <formula>210</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2940,69 +2630,69 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L4:M4">
-    <cfRule type="cellIs" dxfId="90" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="lessThan">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="25" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:M15">
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="8" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="10" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="21" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThan">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M8">
-    <cfRule type="cellIs" dxfId="77" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="18" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3110,7 +2800,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3218,10 +2908,10 @@
         <v>75</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="G3" s="26">
         <v>1</v>
@@ -3488,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>32</v>
@@ -3595,72 +3285,72 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="35" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="lessThan">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M6">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:M15">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M9">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\ch.bfh.bti7081.s2018.white\doc\task06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tester/Desktop/Projekte/Studium/ch.bfh.bti7081.s2018.white/doc/task06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56651009-ACD7-4F84-9216-D083F0E35E37}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="987" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint_2_Backlog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint_3_Backlog!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="179017" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,12 +39,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dario Furigo</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{BECCCC84-F2F0-4362-9FD5-DB744A07F752}">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{9ED7705E-DE33-48B4-B116-A8FEDCC27C8B}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{97F0066E-69DE-419D-96A9-ABC96CB2EADE}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{351104BE-F8E9-4B76-8520-B88D732CE34B}">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{5A2E04FD-249E-455D-9153-624BC4B3B195}">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -410,12 +409,18 @@
   </si>
   <si>
     <t>waiting</t>
+  </si>
+  <si>
+    <t>Janick</t>
+  </si>
+  <si>
+    <t>ivo, Ohran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1807,22 +1812,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="14"/>
-    <col min="2" max="2" width="25.42578125" style="2"/>
-    <col min="3" max="3" width="70.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="25.42578125" style="2"/>
+    <col min="1" max="1" width="25.5" style="14"/>
+    <col min="2" max="2" width="25.5" style="2"/>
+    <col min="3" max="3" width="70.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="25.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="12">
         <v>8</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>6</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -2024,14 +2029,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="E10" s="9">
         <f>SUM(E2:E9)</f>
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>
@@ -2057,21 +2062,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" style="2"/>
+    <col min="1" max="2" width="17.5" style="2"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.42578125" style="2"/>
+    <col min="4" max="16384" width="17.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -2146,7 +2151,7 @@
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>3.2</v>
       </c>
@@ -2180,7 +2185,7 @@
       </c>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>4.0999999999999996</v>
       </c>
@@ -2259,7 +2264,7 @@
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="22">
         <v>4.2</v>
       </c>
@@ -2293,7 +2298,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>4.3</v>
       </c>
@@ -2327,7 +2332,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>4.4000000000000004</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>8.1</v>
       </c>
@@ -2404,7 +2409,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -2438,7 +2443,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>8.3000000000000007</v>
       </c>
@@ -2472,7 +2477,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>8.4</v>
       </c>
@@ -2506,7 +2511,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>8.5</v>
       </c>
@@ -2540,7 +2545,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="22">
         <v>8.6</v>
       </c>
@@ -2572,7 +2577,7 @@
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L16" s="33">
         <f>SUM(L2:L15)</f>
         <v>66</v>
@@ -2624,7 +2629,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H16">
       <sortCondition ref="A1"/>
     </sortState>
@@ -2796,21 +2801,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" style="2"/>
-    <col min="3" max="3" width="49.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="2" width="17.5" style="2"/>
+    <col min="3" max="3" width="49.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>5.0999999999999996</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="22">
         <v>6.1</v>
       </c>
@@ -2930,7 +2935,7 @@
       </c>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="22">
         <v>6.2</v>
       </c>
@@ -2966,7 +2971,7 @@
       </c>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="22">
         <v>6.3</v>
       </c>
@@ -3002,7 +3007,7 @@
       </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>6.4</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="22">
         <v>7.1</v>
       </c>
@@ -3058,8 +3063,12 @@
       <c r="D7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="G7" s="26">
         <v>1</v>
       </c>
@@ -3071,7 +3080,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>7.2</v>
       </c>
@@ -3084,8 +3093,12 @@
       <c r="D8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="26">
         <v>2</v>
       </c>
@@ -3097,7 +3110,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>7.3</v>
       </c>
@@ -3110,8 +3123,12 @@
       <c r="D9" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>80</v>
+      </c>
       <c r="G9" s="26">
         <v>1</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -3164,7 +3181,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="56" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>8.5</v>
       </c>
@@ -3198,7 +3215,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="22">
         <v>8.6</v>
       </c>
@@ -3226,7 +3243,7 @@
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="22">
         <v>8.8000000000000007</v>
       </c>
@@ -3258,7 +3275,7 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="L14" s="30">
         <f>SUM(H10:H13)</f>
         <v>26</v>
@@ -3268,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L15" s="33">
         <f>SUM(L2:L14)</f>
         <v>56</v>
@@ -3279,7 +3296,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H8">
       <sortCondition ref="D1"/>
     </sortState>
@@ -3497,19 +3514,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="2"/>
+    <col min="1" max="16384" width="17.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3544,7 +3561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3557,7 +3574,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3572,7 +3589,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3585,7 +3602,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -3598,7 +3615,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -3611,7 +3628,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -3624,7 +3641,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -3637,7 +3654,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -3650,7 +3667,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3663,7 +3680,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3676,13 +3693,13 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H12" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="A1:H1">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tester/Desktop/Projekte/Studium/ch.bfh.bti7081.s2018.white/doc/task06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beats\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="987" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint_2_Backlog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint_3_Backlog!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +44,7 @@
     <author>Dario Furigo</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="I5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -363,39 +363,12 @@
     <t>Jannick, Ohran</t>
   </si>
   <si>
-    <t>Die Applikation benötigt ein einheitliches Design</t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
-    <t>Als Patient benötige ich readonly Zugriff auf meine Ziele</t>
-  </si>
-  <si>
-    <t>Der Arzt kann neue Ziele für seine zuständigen Patienten erfassen</t>
-  </si>
-  <si>
-    <t>Der Arzt kann seine erfassten Ziele anpassen oder löschen</t>
-  </si>
-  <si>
-    <t>Der Arzt kann Ziele, die von Angehörigen seiner Patienten erstellt wurden, löschen</t>
-  </si>
-  <si>
     <t>Als Arzt will ich dem Patienten im Zielvereinbarungssystem Ziele setzen, ändern, löschen und deren Status anpassen können. Weiter will ich auch die gesetzten Ziele der Angehörigen löschen können.</t>
   </si>
   <si>
-    <t>Alle Ziele haben einen Status, welcher nur vom Arzt angepasst werden kann</t>
-  </si>
-  <si>
-    <t>Die vom Angehörigen erfassten Ziele können editiert und gelöscht werden</t>
-  </si>
-  <si>
-    <t>Die Ziele der Angehörigen sind klar von den Zielen des Arztes zu trennen</t>
-  </si>
-  <si>
-    <t>Der Angehörige eines Patienten kann Ziele erfassen. Dies darf natürlich nur für seine Angehörigen möglich sein</t>
-  </si>
-  <si>
     <t>Presenter, UI, Model, Database</t>
   </si>
   <si>
@@ -405,9 +378,6 @@
     <t>Presenter, UI</t>
   </si>
   <si>
-    <t>Die Applikation benötigt ein Rollengebundenes Berechtigungsmodell, dies beinhaltet die Berechtigungen welche beim Erfassen, Editieren oder Löschen vorhanden sind</t>
-  </si>
-  <si>
     <t>waiting</t>
   </si>
   <si>
@@ -415,12 +385,48 @@
   </si>
   <si>
     <t>ivo, Ohran</t>
+  </si>
+  <si>
+    <t>Als Patient möchte ich Zugriff auf die Ziele welche mir der Arzt gesetzt hat.</t>
+  </si>
+  <si>
+    <t>Als Arzt will ich neue Ziele für die Patienten, für welche ich zuständig bin, erfassen können.</t>
+  </si>
+  <si>
+    <t>Als Arzt will ich die von mir erfassten Ziele anpassen oder löschen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Ziele haben einen Status, welcher nur vom Arzt angepasst werden kann. </t>
+  </si>
+  <si>
+    <t>Als Arzt will ich Ziele, welche durch die Angehörigen meines Patienten erfasst wurden, löschen können.</t>
+  </si>
+  <si>
+    <t>Als Angehöriger möchte ich Ziele für den betroffenen Patienten erfassen können.</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich meine Ziele editieren und löschen können.</t>
+  </si>
+  <si>
+    <t>Die Ziele der Angehörigen sind klar von den Zielen des Arztes zu trennen, da diese des Arztes natürlich von hörerer Bedeutung sind.</t>
+  </si>
+  <si>
+    <t>Als Nutzer der Applikation (ungeachtet der Rolle) will ich mittels eines intuitiven Menüs durch die verschiedenen GUI's navigieren können.</t>
+  </si>
+  <si>
+    <t>Die Applikation benötigt ein rollengebundenes Berechtigungsmodell. Dies beinhaltet die Berechtigungen welche beim Erfassen, Editieren oder Löschen vorhanden sind.</t>
+  </si>
+  <si>
+    <t>Als Nutzer der Applikation will ich ein Dashboard welches die wichtigsten Funktionen zentral zusammenfasst und zugänglich macht.</t>
+  </si>
+  <si>
+    <t>Das Design der Applikation soll einheitlich sein.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -870,7 +876,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -1819,15 +1825,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.46484375" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="14"/>
-    <col min="2" max="2" width="25.5" style="2"/>
-    <col min="3" max="3" width="70.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="25.5" style="2"/>
+    <col min="1" max="1" width="25.46484375" style="14"/>
+    <col min="2" max="2" width="25.46484375" style="2"/>
+    <col min="3" max="3" width="70.46484375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="25.46484375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
       <c r="A3" s="12">
         <v>4</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
       <c r="A4" s="12">
         <v>8</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>6</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D6" s="19">
         <v>2</v>
@@ -1963,7 +1969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="57" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="54.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="E10" s="9">
         <f>SUM(E2:E9)</f>
         <v>173</v>
@@ -2069,14 +2075,14 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5" style="2"/>
+    <col min="1" max="2" width="17.46484375" style="2"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.5" style="2"/>
+    <col min="4" max="16384" width="17.46484375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="33" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="45.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>3.1</v>
       </c>
@@ -2151,7 +2157,7 @@
       </c>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>3.2</v>
       </c>
@@ -2185,7 +2191,7 @@
       </c>
       <c r="L3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22">
         <v>3.3</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>4.0999999999999996</v>
       </c>
@@ -2264,7 +2270,7 @@
       </c>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>4.2</v>
       </c>
@@ -2298,7 +2304,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>4.3</v>
       </c>
@@ -2332,7 +2338,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:13" ht="43" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22">
         <v>4.4000000000000004</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <v>8.1</v>
       </c>
@@ -2409,7 +2415,7 @@
       </c>
       <c r="L9" s="28"/>
     </row>
-    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -2443,7 +2449,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>8.3000000000000007</v>
       </c>
@@ -2477,7 +2483,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>8.4</v>
       </c>
@@ -2511,7 +2517,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>8.5</v>
       </c>
@@ -2545,7 +2551,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <v>8.6</v>
       </c>
@@ -2573,11 +2579,11 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="27" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -2618,7 +2624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L16" s="33">
         <f>SUM(L2:L15)</f>
         <v>66</v>
@@ -2805,17 +2811,17 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D9" activeCellId="1" sqref="C14 D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.5" style="2"/>
+    <col min="1" max="2" width="17.46484375" style="2"/>
     <col min="3" max="3" width="49.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.5" style="2"/>
+    <col min="4" max="16384" width="17.46484375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22">
         <v>5.0999999999999996</v>
       </c>
@@ -2864,10 +2870,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>45</v>
@@ -2899,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A3" s="22">
         <v>6.1</v>
       </c>
@@ -2907,10 +2913,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>32</v>
@@ -2935,7 +2941,7 @@
       </c>
       <c r="L3" s="28"/>
     </row>
-    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A4" s="22">
         <v>6.2</v>
       </c>
@@ -2943,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>32</v>
@@ -2971,7 +2977,7 @@
       </c>
       <c r="L4" s="32"/>
     </row>
-    <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A5" s="22">
         <v>6.3</v>
       </c>
@@ -2979,10 +2985,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>45</v>
@@ -3007,7 +3013,7 @@
       </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="22">
         <v>6.4</v>
       </c>
@@ -3015,10 +3021,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>32</v>
@@ -3050,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <v>7.1</v>
       </c>
@@ -3058,13 +3064,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>57</v>
@@ -3080,7 +3086,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <v>7.2</v>
       </c>
@@ -3088,13 +3094,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>29</v>
@@ -3110,7 +3116,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:13" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22">
         <v>7.3</v>
       </c>
@@ -3118,16 +3124,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G9" s="26">
         <v>1</v>
@@ -3147,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <v>8.1999999999999993</v>
       </c>
@@ -3155,10 +3161,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>62</v>
@@ -3181,7 +3187,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="54" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <v>8.5</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>38</v>
@@ -3215,7 +3221,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <v>8.6</v>
       </c>
@@ -3223,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>39</v>
@@ -3243,7 +3249,7 @@
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <v>8.8000000000000007</v>
       </c>
@@ -3251,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>62</v>
@@ -3275,7 +3281,7 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L14" s="30">
         <f>SUM(H10:H13)</f>
         <v>26</v>
@@ -3285,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L15" s="33">
         <f>SUM(L2:L14)</f>
         <v>56</v>
@@ -3518,15 +3524,15 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="17.5" style="2"/>
+    <col min="1" max="16384" width="17.46484375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3574,7 +3580,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3589,7 +3595,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3602,7 +3608,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
@@ -3615,7 +3621,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -3628,7 +3634,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -3641,7 +3647,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -3654,7 +3660,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -3667,7 +3673,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -3680,7 +3686,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -3693,7 +3699,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H12" s="2">
         <v>100</v>
       </c>

--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="987" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="987" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -164,12 +164,190 @@
         </r>
       </text>
     </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dario Furigo</author>
+  </authors>
+  <commentList>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dario Furigo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Da bekannt wurde, dass wir nur den Angehörigen Teil machen, wurde der Effort angepasst</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -249,9 +427,6 @@
     <t>Grundfunktionalitäten der Applikation</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Sprint</t>
   </si>
   <si>
@@ -421,6 +596,39 @@
   </si>
   <si>
     <t>Das Design der Applikation soll einheitlich sein.</t>
+  </si>
+  <si>
+    <t>Als Patient will ich die Medikamentenverschreibungen und die Instruktionen des Arztes im Patiententagebuch lesend abrufen können.</t>
+  </si>
+  <si>
+    <t>Als Patient möchte ich eigene Einträge meiner Entwicklung festhalten können.</t>
+  </si>
+  <si>
+    <t>Als Patient will ich meine erstellten Einträge ändern und löschen können.</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Als Arzt will ich im Patiententagebuch Medikamentenverschreibungen und Instruktionen für meine Patienten festhalten können.</t>
+  </si>
+  <si>
+    <t>Als Arzt will ich erstellte Einträge im Patiententagebuch verändern und löschen können.</t>
+  </si>
+  <si>
+    <t>Als Arzt will ich auf die Einträge meiner Patienten lesend zugreifen können.</t>
+  </si>
+  <si>
+    <t>(From Sprint 2) 1</t>
+  </si>
+  <si>
+    <t>Angehöriger: Patiententagebuch</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich lesenden Zugriff auf das Patiententagebuch. Dies allerdings nur wenn es durch den Patienten so gewünscht und entsprechend im Programm so ausgewählt wurde.</t>
+  </si>
+  <si>
+    <t>Als Angehöriger will ich, falls dies durch den Patienten so gesetzt wurde, lesenden Zugriff auf das Patiententagebuch.</t>
   </si>
 </sst>
 </file>
@@ -510,7 +718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -624,40 +832,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -763,11 +941,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -778,12 +1010,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -796,89 +1022,140 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="69">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1506,6 +1783,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1819,227 +2156,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.46484375" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.46484375" style="14"/>
+    <col min="1" max="1" width="25.46484375" style="10"/>
     <col min="2" max="2" width="25.46484375" style="2"/>
     <col min="3" max="3" width="70.46484375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="25.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
         <v>20</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="23" t="s">
-        <v>61</v>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
         <v>15</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="23" t="s">
-        <v>61</v>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="15">
         <v>45</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="15">
         <v>2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>15</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
+      <c r="A7" s="9">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
-      <c r="A6" s="12">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="19">
+    <row r="8" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="40">
         <v>2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="B9" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="43">
+        <v>3</v>
+      </c>
+      <c r="E9" s="43">
+        <v>20</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="20">
+        <v>3</v>
+      </c>
+      <c r="E10" s="20">
         <v>15</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
-        <v>7</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19">
-        <v>15</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="19">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>25</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="24">
-        <v>3</v>
-      </c>
-      <c r="E9" s="24">
-        <v>30</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
-      <c r="E10" s="9">
-        <f>SUM(E2:E9)</f>
+    <row r="11" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47">
+        <f>SUM(E2:E10)</f>
         <v>173</v>
       </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
@@ -2047,7 +2413,7 @@
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="E11">
     <cfRule type="cellIs" dxfId="62" priority="1" operator="lessThan">
       <formula>210</formula>
     </cfRule>
@@ -2071,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2083,553 +2449,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="45.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
+        <v>3.1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21">
+        <v>14</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21">
+        <v>10</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21">
+        <v>2</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="24"/>
+    </row>
+    <row r="4" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>3.3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G4" s="21">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J4" s="21">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="K4" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20">
-        <v>3.1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="26">
-        <v>2</v>
-      </c>
-      <c r="H2" s="26">
-        <v>14</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26">
-        <v>10</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="B3" s="22">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="26">
-        <v>2</v>
-      </c>
-      <c r="H3" s="26">
-        <v>2</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26">
-        <v>2</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22">
-        <v>3.3</v>
-      </c>
-      <c r="B4" s="22">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="26">
-        <v>2</v>
-      </c>
-      <c r="H4" s="26">
-        <v>2</v>
-      </c>
-      <c r="I4" s="26">
-        <v>3</v>
-      </c>
-      <c r="J4" s="26">
-        <v>4</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="30">
+      <c r="L4" s="25">
         <f>SUM(H2:H4)</f>
         <v>18</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="25">
         <f>SUM(J2:J4)</f>
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="A5" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2</v>
+      </c>
+      <c r="H5" s="21">
+        <v>4</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2</v>
+      </c>
+      <c r="J5" s="21">
+        <v>4</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="21">
+        <v>3</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <v>3</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>4.3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="29">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
+        <v>3</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="26">
+      <c r="G8" s="21">
         <v>2</v>
       </c>
-      <c r="H5" s="26">
-        <v>4</v>
-      </c>
-      <c r="I5" s="26">
+      <c r="H8" s="21">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21">
         <v>2</v>
       </c>
-      <c r="J5" s="26">
-        <v>4</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
-        <v>4.2</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="26">
-        <v>3</v>
-      </c>
-      <c r="H6" s="26">
-        <v>4</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26">
-        <v>3</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
-        <v>4.3</v>
-      </c>
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="J8" s="21">
         <v>2</v>
       </c>
-      <c r="H7" s="26">
-        <v>3</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26">
-        <v>3</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B8" s="22">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="26">
-        <v>2</v>
-      </c>
-      <c r="H8" s="26">
-        <v>3</v>
-      </c>
-      <c r="I8" s="26">
-        <v>2</v>
-      </c>
-      <c r="J8" s="26">
-        <v>2</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="K8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="25">
         <f>SUM(H5:H8)</f>
         <v>14</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="25">
         <f>SUM(J5:J8)</f>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
+      <c r="A9" s="18">
         <v>8.1</v>
       </c>
-      <c r="B9" s="22">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21">
+        <v>5</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
+        <v>4</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21">
+        <v>3</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>5</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
+        <v>7</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>8.4</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="26">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="F12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21">
+        <v>3</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>7</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
+        <v>6</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>8.6</v>
+      </c>
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>6</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <v>5</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21">
         <v>4</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B10" s="22">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="26">
-        <v>1</v>
-      </c>
-      <c r="H10" s="26">
-        <v>3</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26">
-        <v>3</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B11" s="22">
-        <v>1</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <v>5</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26">
-        <v>7</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
-        <v>8.4</v>
-      </c>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="26">
-        <v>1</v>
-      </c>
-      <c r="H12" s="26">
-        <v>3</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26">
-        <v>3</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="B13" s="22">
-        <v>1</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <v>7</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26">
-        <v>6</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A14" s="22">
-        <v>8.6</v>
-      </c>
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
-        <v>6</v>
-      </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B15" s="22">
-        <v>1</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
-        <v>5</v>
-      </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26">
-        <v>4</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="30">
+      <c r="K15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="25">
         <f>SUM(H9:H15)</f>
         <v>34</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="25">
         <f>SUM(J9:J15)</f>
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L16" s="33">
+      <c r="L16" s="28">
         <f>SUM(L2:L15)</f>
         <v>66</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="28">
         <f>SUM(M2:M15)</f>
         <v>55</v>
       </c>
@@ -2810,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D9" activeCellId="1" sqref="C14 D9"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2822,483 +3188,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B2" s="22">
-        <v>2</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="26">
-        <v>1</v>
-      </c>
-      <c r="H2" s="26">
-        <v>4</v>
-      </c>
-      <c r="I2" s="26">
-        <v>1</v>
-      </c>
-      <c r="J2" s="26">
-        <v>1</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="30">
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="25">
         <f>SUM(H2:H2)</f>
         <v>4</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="25">
         <f>SUM(J2:J2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+      <c r="A3" s="18">
         <v>6.1</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1</v>
+      </c>
+      <c r="H3" s="21">
+        <v>4</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="26">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="D4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="21">
+        <v>2</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>6.3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
         <v>4</v>
       </c>
-      <c r="I3" s="26">
-        <v>1</v>
-      </c>
-      <c r="J3" s="26">
-        <v>1</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="28"/>
-    </row>
-    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
-        <v>6.2</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="26">
+      <c r="C6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H6" s="21">
         <v>2</v>
       </c>
-      <c r="I4" s="26">
-        <v>1</v>
-      </c>
-      <c r="J4" s="26">
-        <v>1</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
-        <v>6.3</v>
-      </c>
-      <c r="B5" s="22">
-        <v>2</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="26">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26">
-        <v>4</v>
-      </c>
-      <c r="I5" s="26">
-        <v>1</v>
-      </c>
-      <c r="J5" s="26">
-        <v>1</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22">
-        <v>6.4</v>
-      </c>
-      <c r="B6" s="22">
-        <v>2</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="34">
-        <v>2</v>
-      </c>
-      <c r="H6" s="26">
-        <v>2</v>
-      </c>
-      <c r="I6" s="26">
-        <v>1</v>
-      </c>
-      <c r="J6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="30">
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="25">
         <f>SUM(H3:H6)</f>
         <v>12</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="25">
         <f>SUM(J3:J6)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="A7" s="18">
         <v>7.1</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="18">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2</v>
+      </c>
+      <c r="H8" s="21">
+        <v>4</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="26">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="21">
         <v>5</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="B8" s="22">
-        <v>2</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="26">
-        <v>2</v>
-      </c>
-      <c r="H8" s="26">
-        <v>4</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
-        <v>7.3</v>
-      </c>
-      <c r="B9" s="22">
-        <v>2</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="26">
-        <v>1</v>
-      </c>
-      <c r="H9" s="26">
-        <v>5</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="30">
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="25">
         <f>SUM(H7:H9)</f>
         <v>14</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="25">
         <f>SUM(J7:J9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="H10" s="21">
+        <v>3</v>
+      </c>
+      <c r="I10" s="21">
+        <v>6</v>
+      </c>
+      <c r="J10" s="21">
+        <v>8</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="54" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="B11" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="21">
         <v>0</v>
       </c>
-      <c r="H10" s="26">
-        <v>3</v>
-      </c>
-      <c r="I10" s="26">
+      <c r="H11" s="21">
+        <v>7</v>
+      </c>
+      <c r="I11" s="21">
+        <v>10</v>
+      </c>
+      <c r="J11" s="21">
+        <v>14</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>8.6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
         <v>6</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21">
+        <v>6</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" ht="54" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
-        <v>8.5</v>
-      </c>
-      <c r="B11" s="22">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="G13" s="21">
         <v>0</v>
       </c>
-      <c r="H11" s="26">
-        <v>7</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="H13" s="21">
         <v>10</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22">
-        <v>8.6</v>
-      </c>
-      <c r="B12" s="22">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>6</v>
-      </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
-      <c r="A13" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B13" s="22">
-        <v>2</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <v>10</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="35"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <f>SUM(H10:H13)</f>
         <v>26</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="25">
         <f>SUM(J10:J13)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L15" s="33">
+      <c r="L15" s="28">
         <f>SUM(L2:L14)</f>
         <v>56</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="28">
         <f>SUM(M2:M14)</f>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3520,221 +3906,498 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="17.46484375" style="2"/>
+    <col min="1" max="2" width="17.46484375" style="2"/>
+    <col min="3" max="3" width="29.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.46484375" style="2"/>
+    <col min="5" max="6" width="17.46484375" style="32"/>
+    <col min="7" max="11" width="17.46484375" style="7"/>
+    <col min="12" max="16384" width="17.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>7.1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="21">
+        <v>5</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>4</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>10</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="67.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="31">
+        <v>3</v>
+      </c>
+      <c r="H5" s="31">
+        <v>5</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="31">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="G6" s="31">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H6" s="31">
+        <v>10</v>
+      </c>
+      <c r="I6" s="21">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="18">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="31">
+        <v>3</v>
+      </c>
+      <c r="H7" s="31">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H12" s="2">
-        <v>100</v>
-      </c>
+      <c r="I7" s="21">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="67.900000000000006" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="31">
+        <v>3</v>
+      </c>
+      <c r="H8" s="31">
+        <v>10</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>1</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="31">
+        <v>3</v>
+      </c>
+      <c r="H9" s="31">
+        <v>5</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="31">
+        <v>3</v>
+      </c>
+      <c r="H10" s="31">
+        <v>5</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="54.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="31">
+        <v>3</v>
+      </c>
+      <c r="H11" s="31">
+        <v>15</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1">
-    <sortState ref="A2:H9">
+    <sortState ref="A2:H8">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>63</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/task06/SprintBacklog.xlsx
+++ b/doc/task06/SprintBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beats\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAL\ch.bfh.bti7081.s2018.white\doc\task06\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EDE8D7-5AC9-4405-908D-CBEBEEF683FB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6585" tabRatio="987" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" tabRatio="987" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sprint_2_Backlog!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sprint_3_Backlog!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179017" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dario Furigo</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -193,12 +194,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Dario Furigo</author>
   </authors>
   <commentList>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -553,9 +554,6 @@
     <t>Presenter, UI</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>Janick</t>
   </si>
   <si>
@@ -617,9 +615,6 @@
   </si>
   <si>
     <t>Als Arzt will ich auf die Einträge meiner Patienten lesend zugreifen können.</t>
-  </si>
-  <si>
-    <t>(From Sprint 2) 1</t>
   </si>
   <si>
     <t>Angehöriger: Patiententagebuch</t>
@@ -634,7 +629,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1155,7 +1150,17 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1168,6 +1173,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1178,6 +1193,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1188,6 +1223,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1198,6 +1283,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1208,6 +1303,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1228,6 +1363,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1238,6 +1423,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1278,6 +1503,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1288,6 +1533,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1298,6 +1553,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1308,6 +1603,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1363,486 +1718,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2155,22 +2030,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.46484375" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.453125" defaultRowHeight="408" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.46484375" style="10"/>
-    <col min="2" max="2" width="25.46484375" style="2"/>
-    <col min="3" max="3" width="70.46484375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="25.46484375" style="2"/>
+    <col min="1" max="1" width="25.453125" style="10"/>
+    <col min="2" max="2" width="25.453125" style="2"/>
+    <col min="3" max="3" width="70.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="25.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17.649999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>3</v>
       </c>
@@ -2218,7 +2093,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>4</v>
       </c>
@@ -2240,7 +2115,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>8</v>
       </c>
@@ -2262,7 +2137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>5</v>
       </c>
@@ -2284,7 +2159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -2306,7 +2181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -2328,7 +2203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -2350,7 +2225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="54.4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A9" s="40">
         <v>2</v>
       </c>
@@ -2372,15 +2247,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="48">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="20">
         <v>3</v>
@@ -2394,7 +2269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -2408,19 +2283,19 @@
       <c r="H11" s="46"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:H9">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="lessThan">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>210</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
       <formula>210</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2434,21 +2309,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.46484375" style="2"/>
+    <col min="1" max="2" width="17.453125" style="2"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.46484375" style="2"/>
+    <col min="4" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="45.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2489,7 +2364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>3.1</v>
       </c>
@@ -2523,7 +2398,7 @@
       </c>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>3.2</v>
       </c>
@@ -2557,7 +2432,7 @@
       </c>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>3.3</v>
       </c>
@@ -2600,7 +2475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4.0999999999999996</v>
       </c>
@@ -2636,7 +2511,7 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4.2</v>
       </c>
@@ -2670,7 +2545,7 @@
       </c>
       <c r="L6" s="27"/>
     </row>
-    <row r="7" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>4.3</v>
       </c>
@@ -2704,7 +2579,7 @@
       </c>
       <c r="L7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>4.4000000000000004</v>
       </c>
@@ -2747,7 +2622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8.1</v>
       </c>
@@ -2781,7 +2656,7 @@
       </c>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8.1999999999999993</v>
       </c>
@@ -2815,7 +2690,7 @@
       </c>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>8.3000000000000007</v>
       </c>
@@ -2849,7 +2724,7 @@
       </c>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>8.4</v>
       </c>
@@ -2883,7 +2758,7 @@
       </c>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>8.5</v>
       </c>
@@ -2913,11 +2788,11 @@
         <v>6</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>8.6</v>
       </c>
@@ -2943,13 +2818,15 @@
         <v>6</v>
       </c>
       <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="21">
+        <v>5</v>
+      </c>
       <c r="K14" s="22" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>8.6999999999999993</v>
       </c>
@@ -2987,89 +2864,89 @@
       </c>
       <c r="M15" s="25">
         <f>SUM(J9:J15)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L16" s="28">
         <f>SUM(L2:L15)</f>
         <v>66</v>
       </c>
       <c r="M16" s="28">
         <f>SUM(M2:M15)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A2:H16">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L4:M4">
-    <cfRule type="cellIs" dxfId="59" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="lessThan">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:M15">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="9" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="19" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="lessThan">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M8">
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:M16">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G6">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3173,21 +3050,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.46484375" style="2"/>
-    <col min="3" max="3" width="49.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="17.46484375" style="2"/>
+    <col min="1" max="2" width="17.453125" style="2"/>
+    <col min="3" max="3" width="49.36328125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>5.0999999999999996</v>
       </c>
@@ -3236,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>67</v>
@@ -3271,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>6.1</v>
       </c>
@@ -3279,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>65</v>
@@ -3307,7 +3184,7 @@
       </c>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>6.2</v>
       </c>
@@ -3315,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>65</v>
@@ -3343,7 +3220,7 @@
       </c>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>6.3</v>
       </c>
@@ -3351,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>65</v>
@@ -3379,7 +3256,7 @@
       </c>
       <c r="L5" s="27"/>
     </row>
-    <row r="6" spans="1:13" ht="27.4" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>6.4</v>
       </c>
@@ -3387,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>65</v>
@@ -3422,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>7.1</v>
       </c>
@@ -3430,13 +3307,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>56</v>
@@ -3456,7 +3333,7 @@
       </c>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:13" ht="27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7.2</v>
       </c>
@@ -3464,13 +3341,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>28</v>
@@ -3490,7 +3367,7 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="1:13" ht="40.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>7.3</v>
       </c>
@@ -3498,16 +3375,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="21">
         <v>1</v>
@@ -3533,7 +3410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>8.1999999999999993</v>
       </c>
@@ -3541,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>67</v>
@@ -3569,7 +3446,7 @@
       </c>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="1:13" ht="54" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>8.5</v>
       </c>
@@ -3577,7 +3454,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>37</v>
@@ -3605,7 +3482,7 @@
       </c>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>8.6</v>
       </c>
@@ -3613,7 +3490,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>38</v>
@@ -3635,7 +3512,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:13" ht="13.9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>8.8000000000000007</v>
       </c>
@@ -3643,7 +3520,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>63</v>
@@ -3667,7 +3544,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L14" s="25">
         <f>SUM(H10:H13)</f>
         <v>26</v>
@@ -3677,7 +3554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L15" s="28">
         <f>SUM(L2:L14)</f>
         <v>56</v>
@@ -3688,78 +3565,78 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState ref="A2:H8">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L2:M2">
-    <cfRule type="cellIs" dxfId="34" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:M14">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="greaterThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="lessThan">
       <formula>45</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="lessThan">
       <formula>45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:M6">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="27" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:M15">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>63</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>63</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M9">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3906,24 +3783,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.46484375" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="17.46484375" style="2"/>
-    <col min="3" max="3" width="29.06640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.46484375" style="2"/>
-    <col min="5" max="6" width="17.46484375" style="32"/>
-    <col min="7" max="11" width="17.46484375" style="7"/>
-    <col min="12" max="16384" width="17.46484375" style="2"/>
+    <col min="1" max="2" width="17.453125" style="2"/>
+    <col min="3" max="3" width="29.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="2"/>
+    <col min="5" max="6" width="17.453125" style="32"/>
+    <col min="7" max="11" width="17.453125" style="7"/>
+    <col min="12" max="16384" width="17.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3958,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>7.1</v>
       </c>
@@ -3966,13 +3843,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>56</v>
@@ -3983,15 +3860,17 @@
       <c r="H2" s="21">
         <v>5</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
-        <v>90</v>
+      <c r="I2" s="21">
+        <v>2</v>
+      </c>
+      <c r="J2" s="21">
+        <v>4</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="40.5" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>7.2</v>
       </c>
@@ -3999,13 +3878,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>28</v>
@@ -4016,15 +3895,17 @@
       <c r="H3" s="21">
         <v>4</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21" t="s">
-        <v>90</v>
+      <c r="I3" s="21">
+        <v>2</v>
+      </c>
+      <c r="J3" s="21">
+        <v>4</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>8.8000000000000007</v>
       </c>
@@ -4032,7 +3913,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>63</v>
@@ -4050,12 +3931,14 @@
         <v>10</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="J4" s="21">
+        <v>12</v>
+      </c>
       <c r="K4" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="67.900000000000006" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>1.1000000000000001</v>
       </c>
@@ -4063,7 +3946,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>39</v>
@@ -4090,7 +3973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>1.2</v>
       </c>
@@ -4098,7 +3981,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
@@ -4125,7 +4008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1.3</v>
       </c>
@@ -4133,16 +4016,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="31">
         <v>3</v>
@@ -4160,7 +4043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="67.900000000000006" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2.1</v>
       </c>
@@ -4168,7 +4051,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>39</v>
@@ -4177,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="31">
         <v>3</v>
@@ -4195,7 +4078,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>2.2000000000000002</v>
       </c>
@@ -4203,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>39</v>
@@ -4212,7 +4095,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="31">
         <v>3</v>
@@ -4230,7 +4113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>2.2999999999999998</v>
       </c>
@@ -4238,7 +4121,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>39</v>
@@ -4265,7 +4148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="54.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="56" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>9.1</v>
       </c>
@@ -4273,13 +4156,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>56</v>
@@ -4291,12 +4174,14 @@
         <v>15</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="J11" s="31">
+        <v>13</v>
+      </c>
       <c r="K11" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -4305,7 +4190,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="34"/>
       <c r="C14" s="37"/>
@@ -4314,7 +4199,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="34"/>
       <c r="C15" s="37"/>
@@ -4323,7 +4208,7 @@
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -4332,7 +4217,7 @@
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -4341,7 +4226,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -4350,7 +4235,7 @@
       <c r="F18" s="34"/>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -4359,7 +4244,7 @@
       <c r="F19" s="34"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -4368,7 +4253,7 @@
       <c r="F20" s="34"/>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -4377,7 +4262,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -4387,7 +4272,7 @@
       <c r="G22" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1">
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <sortState ref="A2:H8">
       <sortCondition ref="D1"/>
     </sortState>
